--- a/results/LGBMClassifier.xlsx
+++ b/results/LGBMClassifier.xlsx
@@ -1,123 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Best Estimator</t>
-  </si>
-  <si>
-    <t>Best Score</t>
-  </si>
-  <si>
-    <t>Best Params</t>
-  </si>
-  <si>
-    <t>Validation Score</t>
-  </si>
-  <si>
-    <t>Y Val (Validation)</t>
-  </si>
-  <si>
-    <t>Y Pred (Validation)</t>
-  </si>
-  <si>
-    <t>Seed</t>
-  </si>
-  <si>
-    <t>CV Train Mean</t>
-  </si>
-  <si>
-    <t>CV Train STD</t>
-  </si>
-  <si>
-    <t>CV Test Mean</t>
-  </si>
-  <si>
-    <t>CV Test STD</t>
-  </si>
-  <si>
-    <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
-                ('model',
-                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                random_state=42))])</t>
-  </si>
-  <si>
-    <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
-                ('model',
-                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                random_state=42))])</t>
-  </si>
-  <si>
-    <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
-                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                random_state=42))])</t>
-  </si>
-  <si>
-    <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
-  </si>
-  <si>
-    <t>{'selector': None, 'scaler': RobustScaler(), 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
-  </si>
-  <si>
-    <t>{'selector': None, 'scaler': StandardScaler(), 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
-  </si>
-  <si>
-    <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-  </si>
-  <si>
-    <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-  </si>
-  <si>
-    <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
-  </si>
-  <si>
-    <t>[1 0 0 0 1 1 1 1 1 1 1 0]</t>
-  </si>
-  <si>
-    <t>[1 1 1 1 0 1 1 1 0 1 0 0]</t>
-  </si>
-  <si>
-    <t>[1 0 1 1 0 0 1 1 1 1 1 0]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,154 +420,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Best Estimator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Best Score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Best Params</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Y Val (Validation)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Y Pred (Validation)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train STD</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test STD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+                ('model',
+                 LGBMClassifier(boosting_type='dart', colsample_bytree=0.9,
+                                learning_rate=0.2, max_depth=7, num_leaves=10,
+                                random_state=42, subsample=0.5))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 7, 'model__learning_rate': 0.2, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H2" t="n">
+        <v>0.8730952380952383</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01953678495861698</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5759047619047618</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05899272000117169</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+                ('model',
+                 LGBMClassifier(boosting_type='dart', colsample_bytree=0.5,
+                                learning_rate=0.01, max_depth=3, num_leaves=10,
+                                random_state=42, subsample=0.9))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__subsample': 0.9, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.5, 'model__class_weight': None, 'model__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7058823529411764</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>10</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.8762142857142856</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01732267175408187</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5432380952380952</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05623941447730704</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.6056623376623376</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.9535687753678778</v>
-      </c>
-      <c r="I2">
-        <v>0.01184984646517995</v>
-      </c>
-      <c r="J2">
-        <v>0.5685814868386164</v>
-      </c>
-      <c r="K2">
-        <v>0.06964535397354267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0.6137293897728681</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0.9639798176065734</v>
-      </c>
-      <c r="I3">
-        <v>0.01329136489391889</v>
-      </c>
-      <c r="J3">
-        <v>0.5836087063768224</v>
-      </c>
-      <c r="K3">
-        <v>0.1001980752923011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0.6244089646263559</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+                ('model',
+                 LGBMClassifier(colsample_bytree=0.9, learning_rate=0.05,
+                                max_depth=7, num_leaves=2, random_state=42,
+                                subsample=0.5))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6095238095238095</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__min_child_samples': 20, 'model__max_depth': 7, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'gbdt'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8421052631578948</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>42</v>
       </c>
-      <c r="H4">
-        <v>0.9623431105557395</v>
-      </c>
-      <c r="I4">
-        <v>0.0100865586502507</v>
-      </c>
-      <c r="J4">
-        <v>0.600580930704803</v>
-      </c>
-      <c r="K4">
-        <v>0.08169612364927552</v>
+      <c r="H4" t="n">
+        <v>0.9125238095238096</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01569703208239887</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4973333333333333</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.09132576555870386</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/LGBMClassifier.xlsx
+++ b/results/LGBMClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,103 +495,108 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
                 ('model',
-                 LGBMClassifier(boosting_type='dart', colsample_bytree=0.9,
-                                learning_rate=0.2, max_depth=7, num_leaves=10,
-                                random_state=42, subsample=0.5))])</t>
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                colsample_bytree=0.7, learning_rate=0.01,
+                                max_depth=7, min_child_samples=1, num_leaves=2,
+                                random_state=42, subsample=0.9))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6476190476190476</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 7, 'model__learning_rate': 0.2, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__subsample': 0.9, 'model__num_leaves': 2, 'model__min_child_samples': 1, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 0 1 0 0 0 1 0 1 0 0 0]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8730952380952383</v>
+        <v>0.8636469221835076</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01953678495861698</v>
+        <v>0.01793771493432178</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5759047619047618</v>
+        <v>0.5710801393728222</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05899272000117169</v>
+        <v>0.05990602028042255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f45a97add00&gt;),
                 ('model',
-                 LGBMClassifier(boosting_type='dart', colsample_bytree=0.5,
-                                learning_rate=0.01, max_depth=3, num_leaves=10,
-                                random_state=42, subsample=0.9))])</t>
+                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.7,
+                                learning_rate=0.01, max_depth=1, num_leaves=10,
+                                random_state=42, subsample=0.5))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__subsample': 0.9, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.5, 'model__class_weight': None, 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c5d4ca0&gt;, 'scaler': None, 'model__subsample': 0.5, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 1]</t>
+          <t>[0 1 0 1 1 0 0 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8762142857142856</v>
+        <v>0.8768796992481203</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01732267175408187</v>
+        <v>0.01784000748549297</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5432380952380952</v>
+        <v>0.5106516290726816</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05623941447730704</v>
+        <v>0.07478733123258723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f45a9c158b0&gt;),
                 ('model',
-                 LGBMClassifier(colsample_bytree=0.9, learning_rate=0.05,
-                                max_depth=7, num_leaves=2, random_state=42,
-                                subsample=0.5))])</t>
+                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.5,
+                                learning_rate=0.05, max_depth=5, num_leaves=10,
+                                random_state=42, subsample=0.7))])</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -599,11 +604,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__min_child_samples': 20, 'model__max_depth': 7, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a642e0100&gt;, 'scaler': None, 'model__subsample': 0.7, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 5, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8421052631578948</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -612,23 +617,122 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 0 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9125238095238096</v>
+        <v>0.874624060150376</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01569703208239887</v>
+        <v>0.01894050260234806</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4973333333333333</v>
+        <v>0.5081453634085213</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09132576555870386</v>
+        <v>0.09603989856371536</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a642e02b0&gt;),
+                ('model',
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                colsample_bytree=0.7, learning_rate=0.2,
+                                max_depth=1, num_leaves=2, random_state=42,
+                                subsample=0.9))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6476190476190475</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a643fe9a0&gt;, 'scaler': None, 'model__subsample': 0.9, 'model__num_leaves': 2, 'model__min_child_samples': 20, 'model__max_depth': 1, 'model__learning_rate': 0.2, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8723684210526316</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01862244105769229</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5213032581453634</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.06755114146166681</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 LGBMClassifier(colsample_bytree=0.9, learning_rate=0.01,
+                                max_depth=1, min_child_samples=10, num_leaves=5,
+                                random_state=42, subsample=0.9))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__subsample': 0.9, 'model__num_leaves': 5, 'model__min_child_samples': 10, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'gbdt'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8876825396825396</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0167951775428383</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5179682539682539</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.08350895700281397</v>
       </c>
     </row>
   </sheetData>

--- a/results/LGBMClassifier.xlsx
+++ b/results/LGBMClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,73 +493,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.7, learning_rate=0.01,
-                                max_depth=7, min_child_samples=1, num_leaves=2,
-                                random_state=42, subsample=0.9))])</t>
+                 LGBMClassifier(boosting_type='dart', colsample_bytree=0.5,
+                                learning_rate=0.05, max_depth=3,
+                                min_child_samples=5, num_leaves=20,
+                                random_state=42, subsample=0.5))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.5452014652014652</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__subsample': 0.9, 'model__num_leaves': 2, 'model__min_child_samples': 1, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__num_leaves': 20, 'model__min_child_samples': 5, 'model__max_depth': 3, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.5, 'model__class_weight': None, 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 0 1 0 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8636469221835076</v>
+        <v>0.8854060899217706</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01793771493432178</v>
+        <v>0.02096562751120613</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5710801393728222</v>
+        <v>0.4657266308491799</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05990602028042255</v>
+        <v>0.1729604846966513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f45a97add00&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.7,
-                                learning_rate=0.01, max_depth=1, num_leaves=10,
-                                random_state=42, subsample=0.5))])</t>
+                 LGBMClassifier(colsample_bytree=0.9, learning_rate=0.01,
+                                max_depth=1, min_child_samples=10,
+                                num_leaves=10, random_state=42,
+                                subsample=0.5))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.638095238095238</v>
+        <v>0.6636463046757164</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c5d4ca0&gt;, 'scaler': None, 'model__subsample': 0.5, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__num_leaves': 10, 'model__min_child_samples': 10, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -568,171 +573,117 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 0 0 1 0 1 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8768796992481203</v>
+        <v>0.8516786594000523</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01784000748549297</v>
+        <v>0.01715680152289042</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5106516290726816</v>
+        <v>0.5945760938407998</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07478733123258723</v>
+        <v>0.1348506052781433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f45a9c158b0&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.5,
-                                learning_rate=0.05, max_depth=5, num_leaves=10,
+                 LGBMClassifier(colsample_bytree=0.5, learning_rate=0.01,
+                                max_depth=1, min_child_samples=1, num_leaves=20,
                                 random_state=42, subsample=0.7))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6095238095238095</v>
+        <v>0.6987745098039215</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a642e0100&gt;, 'scaler': None, 'model__subsample': 0.7, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 5, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__subsample': 0.7, 'model__num_leaves': 20, 'model__min_child_samples': 1, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.5, 'model__class_weight': None, 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.874624060150376</v>
+        <v>0.8895698287972493</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01894050260234806</v>
+        <v>0.01451421658415484</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5081453634085213</v>
+        <v>0.6185321694837266</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09603989856371536</v>
+        <v>0.1014709244906224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a642e02b0&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.7, learning_rate=0.2,
-                                max_depth=1, num_leaves=2, random_state=42,
-                                subsample=0.9))])</t>
+                 LGBMClassifier(boosting_type='dart', colsample_bytree=0.9,
+                                learning_rate=0.01, max_depth=7, num_leaves=10,
+                                random_state=42, subsample=0.5))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6476190476190475</v>
+        <v>0.7431392300509947</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a643fe9a0&gt;, 'scaler': None, 'model__subsample': 0.9, 'model__num_leaves': 2, 'model__min_child_samples': 20, 'model__max_depth': 1, 'model__learning_rate': 0.2, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0 0 0 1 0 1 1 1 1 0 1 1]</t>
+          <t>[0 1 1 1 1 1 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8723684210526316</v>
+        <v>0.9048564082601344</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01862244105769229</v>
+        <v>0.01602594239841623</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5213032581453634</v>
+        <v>0.596211384732146</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06755114146166681</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 LGBMClassifier(colsample_bytree=0.9, learning_rate=0.01,
-                                max_depth=1, min_child_samples=10, num_leaves=5,
-                                random_state=42, subsample=0.9))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__subsample': 0.9, 'model__num_leaves': 5, 'model__min_child_samples': 10, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'gbdt'}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 1 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8876825396825396</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0167951775428383</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5179682539682539</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.08350895700281397</v>
+        <v>0.1425300255554</v>
       </c>
     </row>
   </sheetData>

--- a/results/LGBMClassifier.xlsx
+++ b/results/LGBMClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,239 +451,374 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 LGBMClassifier(boosting_type='dart', colsample_bytree=0.5,
-                                learning_rate=0.05, max_depth=3,
-                                min_child_samples=5, num_leaves=20,
-                                random_state=42, subsample=0.5))])</t>
+                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.7,
+                                learning_rate=0.01, max_depth=3,
+                                min_child_samples=5, num_leaves=10,
+                                random_state=42, subsample=0.9))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5452014652014652</v>
+        <v>0.6026190476190476</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__num_leaves': 20, 'model__min_child_samples': 5, 'model__max_depth': 3, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.5, 'model__class_weight': None, 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__subsample': 0.9, 'model__num_leaves': 10, 'model__min_child_samples': 5, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
+        <v>0.8395485985017433</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.43271225996226</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7916666666666666</v>
       </c>
       <c r="G2" t="n">
+        <v>0.8810387567164689</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5150714285714285</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8061904761904761</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3990000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8854060899217706</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02096562751120613</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4657266308491799</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1729604846966513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58723afd0&gt;),
                 ('model',
-                 LGBMClassifier(colsample_bytree=0.9, learning_rate=0.01,
-                                max_depth=1, min_child_samples=10,
-                                num_leaves=10, random_state=42,
-                                subsample=0.5))])</t>
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                colsample_bytree=0.7, learning_rate=0.01,
+                                max_depth=3, min_child_samples=1, num_leaves=2,
+                                random_state=42, subsample=0.7))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6636463046757164</v>
+        <v>0.71</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__num_leaves': 10, 'model__min_child_samples': 10, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f460&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.7, 'model__num_leaves': 2, 'model__min_child_samples': 1, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.7768849155311699</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5185335497835497</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4117647058823529</v>
       </c>
       <c r="G3" t="n">
+        <v>0.8661888386811351</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.570029761904762</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7182500000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5050000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8516786594000523</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01715680152289042</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5945760938407998</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1348506052781433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd584cb8bb0&gt;),
                 ('model',
-                 LGBMClassifier(colsample_bytree=0.5, learning_rate=0.01,
-                                max_depth=1, min_child_samples=1, num_leaves=20,
-                                random_state=42, subsample=0.7))])</t>
+                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.9,
+                                learning_rate=0.05, max_depth=1,
+                                min_child_samples=5, num_leaves=2,
+                                random_state=42, subsample=0.9))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6987745098039215</v>
+        <v>0.6253571428571429</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__subsample': 0.7, 'model__num_leaves': 20, 'model__min_child_samples': 1, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.5, 'model__class_weight': None, 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f5fb80&gt;, 'scaler': StandardScaler(), 'model__subsample': 0.9, 'model__num_leaves': 2, 'model__min_child_samples': 5, 'model__max_depth': 1, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 1]</t>
-        </is>
+        <v>0.7922729756393052</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4861205461205461</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5652173913043479</v>
       </c>
       <c r="G4" t="n">
+        <v>0.8384633772292972</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5182142857142856</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7651315789473683</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8895698287972493</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01451421658415484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6185321694837266</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1014709244906224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f160&gt;),
                 ('model',
-                 LGBMClassifier(boosting_type='dart', colsample_bytree=0.9,
-                                learning_rate=0.01, max_depth=7, num_leaves=10,
+                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.5,
+                                learning_rate=0.01, max_depth=1,
+                                min_child_samples=1, num_leaves=5,
                                 random_state=42, subsample=0.5))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7431392300509947</v>
+        <v>0.7474999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__subsample': 0.5, 'model__num_leaves': 10, 'model__min_child_samples': 20, 'model__max_depth': 7, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': None, 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f3d0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__num_leaves': 5, 'model__min_child_samples': 1, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 1 0 1 0 1 1]</t>
-        </is>
+        <v>0.7472221184417912</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4509834332334332</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5853658536585366</v>
       </c>
       <c r="G5" t="n">
+        <v>0.835747291557525</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5349226190476191</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6885714285714285</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.9048564082601344</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01602594239841623</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.596211384732146</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1425300255554</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f310&gt;),
+                ('model',
+                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.9,
+                                learning_rate=0.01, max_depth=3,
+                                min_child_samples=5, num_leaves=2,
+                                random_state=42, subsample=0.7))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8480952380952381</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58bd500a0&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.7, 'model__num_leaves': 2, 'model__min_child_samples': 5, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8186731905521059</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6357722277722277</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8536985010772071</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.652047619047619</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7906818181818182</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/LGBMClassifier.xlsx
+++ b/results/LGBMClassifier.xlsx
@@ -513,60 +513,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f8c4340&gt;),
                 ('model',
-                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.7,
-                                learning_rate=0.01, max_depth=3,
-                                min_child_samples=5, num_leaves=10,
-                                random_state=42, subsample=0.9))])</t>
+                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.9,
+                                learning_rate=0.05, max_depth=3,
+                                min_child_samples=7, num_leaves=2,
+                                random_state=42, subsample=0.5))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6026190476190476</v>
+        <v>0.6262393162393163</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__subsample': 0.9, 'model__num_leaves': 10, 'model__min_child_samples': 5, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f633460&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__min_child_samples': 7, 'model__max_depth': 3, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8395485985017433</v>
+        <v>0.8034621418857302</v>
       </c>
       <c r="E2" t="n">
-        <v>0.43271225996226</v>
+        <v>0.4804183316683316</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8810387567164689</v>
+        <v>0.8883674012824031</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5150714285714285</v>
+        <v>0.5490119047619049</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8061904761904761</v>
+        <v>0.7465957446808511</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3990000000000001</v>
+        <v>0.4516666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.875</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 0 0 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -578,57 +577,57 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58723afd0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f633520&gt;),
                 ('model',
-                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.7, learning_rate=0.01,
-                                max_depth=3, min_child_samples=1, num_leaves=2,
+                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.7,
+                                learning_rate=0.05, max_depth=3,
+                                min_child_samples=1, num_leaves=10,
                                 random_state=42, subsample=0.7))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.71</v>
+        <v>0.5651748251748251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f460&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.7, 'model__num_leaves': 2, 'model__min_child_samples': 1, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f62ebe0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.7, 'model__num_leaves': 10, 'model__min_child_samples': 1, 'model__max_depth': 3, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7768849155311699</v>
+        <v>0.7452972856481779</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5185335497835497</v>
+        <v>0.4840977078477079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.6875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8661888386811351</v>
+        <v>0.8524756293190217</v>
       </c>
       <c r="H3" t="n">
-        <v>0.570029761904762</v>
+        <v>0.6905238095238095</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7182500000000001</v>
+        <v>0.6786170212765958</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5050000000000001</v>
+        <v>0.4008333333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.6875</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1]</t>
+          <t>[0 1 0 1 1 1 0 1 1 0 1 0 1 0 1 1 1 1 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -640,57 +639,57 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd584cb8bb0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f633b50&gt;),
                 ('model',
                  LGBMClassifier(class_weight='balanced', colsample_bytree=0.9,
-                                learning_rate=0.05, max_depth=1,
-                                min_child_samples=5, num_leaves=2,
+                                learning_rate=0.01, max_depth=3,
+                                min_child_samples=1, num_leaves=10,
                                 random_state=42, subsample=0.9))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6253571428571429</v>
+        <v>0.5881313131313132</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f5fb80&gt;, 'scaler': StandardScaler(), 'model__subsample': 0.9, 'model__num_leaves': 2, 'model__min_child_samples': 5, 'model__max_depth': 1, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f62e9d0&gt;, 'scaler': StandardScaler(), 'model__subsample': 0.9, 'model__num_leaves': 10, 'model__min_child_samples': 1, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7922729756393052</v>
+        <v>0.7671851930890795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4861205461205461</v>
+        <v>0.448747446997447</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5652173913043479</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8384633772292972</v>
+        <v>0.8200559410906767</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5182142857142856</v>
+        <v>0.5357678571428571</v>
       </c>
       <c r="I4" t="n">
-        <v>0.65</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7651315789473683</v>
+        <v>0.7431111111111111</v>
       </c>
       <c r="K4" t="n">
-        <v>0.479</v>
+        <v>0.413</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -702,57 +701,57 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f160&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f62e040&gt;),
                 ('model',
-                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.5,
-                                learning_rate=0.01, max_depth=1,
-                                min_child_samples=1, num_leaves=5,
-                                random_state=42, subsample=0.5))])</t>
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                colsample_bytree=0.9, learning_rate=0.05,
+                                max_depth=1, min_child_samples=1, num_leaves=5,
+                                random_state=42, subsample=0.7))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7474999999999999</v>
+        <v>0.583030303030303</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f3d0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__num_leaves': 5, 'model__min_child_samples': 1, 'model__max_depth': 1, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f7660d0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.7, 'model__num_leaves': 5, 'model__min_child_samples': 1, 'model__max_depth': 1, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7472221184417912</v>
+        <v>0.74468610914908</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4509834332334332</v>
+        <v>0.4582979797979798</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.64</v>
       </c>
       <c r="G5" t="n">
-        <v>0.835747291557525</v>
+        <v>0.8338224460027911</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5349226190476191</v>
+        <v>0.5855238095238094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6885714285714285</v>
+        <v>0.6835714285714285</v>
       </c>
       <c r="K5" t="n">
-        <v>0.43</v>
+        <v>0.4050000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 0 1 1 1 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -764,57 +763,57 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f5f310&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d316880&gt;),
                 ('model',
-                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.9,
-                                learning_rate=0.01, max_depth=3,
-                                min_child_samples=5, num_leaves=2,
-                                random_state=42, subsample=0.7))])</t>
+                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.5,
+                                learning_rate=0.05, max_depth=1,
+                                min_child_samples=1, num_leaves=10,
+                                random_state=42, subsample=0.9))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8480952380952381</v>
+        <v>0.6661383061383062</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58bd500a0&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.7, 'model__num_leaves': 2, 'model__min_child_samples': 5, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f766550&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.9, 'model__num_leaves': 10, 'model__min_child_samples': 1, 'model__max_depth': 1, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8186731905521059</v>
+        <v>0.7762729792191194</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6357722277722277</v>
+        <v>0.587638306138306</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8536985010772071</v>
+        <v>0.8581702307670799</v>
       </c>
       <c r="H6" t="n">
-        <v>0.652047619047619</v>
+        <v>0.6363194444444444</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7906818181818182</v>
+        <v>0.7123076923076923</v>
       </c>
       <c r="K6" t="n">
-        <v>0.647</v>
+        <v>0.5600000000000002</v>
       </c>
       <c r="L6" t="n">
-        <v>0.65</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0]</t>
+          <t>[1 1 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/LGBMClassifier.xlsx
+++ b/results/LGBMClassifier.xlsx
@@ -513,50 +513,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f8c4340&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.9,
-                                learning_rate=0.05, max_depth=3,
-                                min_child_samples=7, num_leaves=2,
-                                random_state=42, subsample=0.5))])</t>
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                max_bin=50, max_depth=7, min_data_in_leaf=45,
+                                num_iterations=300, num_leaves=5,
+                                random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6262393162393163</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f633460&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__min_child_samples': 7, 'model__max_depth': 3, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__num_leaves': 5, 'model__num_iterations': 300, 'model__min_data_in_leaf': 45, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.1, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8034621418857302</v>
+        <v>0.7562802027311201</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4804183316683316</v>
+        <v>0.5159305694305695</v>
       </c>
       <c r="F2" t="n">
-        <v>0.823529411764706</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8883674012824031</v>
+        <v>0.7627705810062647</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5490119047619049</v>
+        <v>0.5364345238095238</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7465957446808511</v>
+        <v>0.7724468085106383</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4516666666666667</v>
+        <v>0.5283333333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -565,7 +563,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1 0 0 1 0 0 1 1 1 1 1 1 1]</t>
+          <t>[1 0 0 1 1 1 0 0 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -575,47 +573,45 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f633520&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.7,
-                                learning_rate=0.05, max_depth=3,
-                                min_child_samples=1, num_leaves=10,
-                                random_state=42, subsample=0.7))])</t>
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                learning_rate=0.3, max_bin=50, max_depth=7,
+                                min_data_in_leaf=45, num_iterations=300,
+                                num_leaves=7, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5651748251748251</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f62ebe0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.7, 'model__num_leaves': 10, 'model__min_child_samples': 1, 'model__max_depth': 3, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.7, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__num_leaves': 7, 'model__num_iterations': 300, 'model__min_data_in_leaf': 45, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.3, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7452972856481779</v>
+        <v>0.7676652887866684</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4840977078477079</v>
+        <v>0.6282045454545454</v>
       </c>
       <c r="F3" t="n">
         <v>0.6875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8524756293190217</v>
+        <v>0.7128755291269889</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6905238095238095</v>
+        <v>0.6173730158730159</v>
       </c>
       <c r="I3" t="n">
         <v>0.6875</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6786170212765958</v>
+        <v>0.8713829787234042</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4008333333333334</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L3" t="n">
         <v>0.6875</v>
@@ -627,7 +623,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 1 0 1 1 0 1 0 1 0 1 1 1 1 1 0 1 0 1 1]</t>
+          <t>[0 1 0 1 1 1 1 1 1 0 0 0 1 0 1 1 1 1 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -637,44 +633,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f633b50&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.9,
-                                learning_rate=0.01, max_depth=3,
-                                min_child_samples=1, num_leaves=10,
-                                random_state=42, subsample=0.9))])</t>
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                learning_rate=0.05, max_bin=75, max_depth=7,
+                                min_data_in_leaf=40, num_iterations=400,
+                                num_leaves=7, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5881313131313132</v>
+        <v>0.6055283605283606</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f62e9d0&gt;, 'scaler': StandardScaler(), 'model__subsample': 0.9, 'model__num_leaves': 10, 'model__min_child_samples': 1, 'model__max_depth': 3, 'model__learning_rate': 0.01, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__num_leaves': 7, 'model__num_iterations': 400, 'model__min_data_in_leaf': 40, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7671851930890795</v>
+        <v>0.6582904742646682</v>
       </c>
       <c r="E4" t="n">
-        <v>0.448747446997447</v>
+        <v>0.4281201021201022</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8200559410906767</v>
+        <v>0.6820015665154824</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5357678571428571</v>
+        <v>0.4840357142857144</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7431111111111111</v>
+        <v>0.6377777777777778</v>
       </c>
       <c r="K4" t="n">
         <v>0.413</v>
@@ -689,7 +683,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1]</t>
+          <t>[0 1 1 1 0 1 0 1 1 0 1 0 0 1 1 0 0 0 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -699,50 +693,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f62e040&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.9, learning_rate=0.05,
-                                max_depth=1, min_child_samples=1, num_leaves=5,
-                                random_state=42, subsample=0.7))])</t>
+                                learning_rate=0.05, max_bin=200, max_depth=7,
+                                min_data_in_leaf=45, num_iterations=400,
+                                num_leaves=7, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.583030303030303</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f7660d0&gt;, 'scaler': RobustScaler(), 'model__subsample': 0.7, 'model__num_leaves': 5, 'model__min_child_samples': 1, 'model__max_depth': 1, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.9, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__num_leaves': 7, 'model__num_iterations': 400, 'model__min_data_in_leaf': 45, 'model__max_depth': 7, 'model__max_bin': 200, 'model__learning_rate': 0.05, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.74468610914908</v>
+        <v>0.7510598836219566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4582979797979798</v>
+        <v>0.5892878787878787</v>
       </c>
       <c r="F5" t="n">
-        <v>0.64</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8338224460027911</v>
+        <v>0.7293095761955634</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5855238095238094</v>
+        <v>0.603</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6835714285714285</v>
+        <v>0.80734693877551</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4050000000000001</v>
+        <v>0.6433333333333333</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -751,7 +743,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 1 1]</t>
+          <t>[0 1 1 1 1 0 0 1 0 0 1 1 1 1 1 1 0 0 0 1 0 1 1 0]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -761,50 +753,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d316880&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 LGBMClassifier(class_weight='balanced', colsample_bytree=0.5,
-                                learning_rate=0.05, max_depth=1,
-                                min_child_samples=1, num_leaves=10,
-                                random_state=42, subsample=0.9))])</t>
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                max_bin=50, max_depth=7, min_data_in_leaf=30,
+                                num_iterations=400, num_leaves=2,
+                                random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6661383061383062</v>
+        <v>0.6391219891219891</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f766550&gt;, 'scaler': MinMaxScaler(), 'model__subsample': 0.9, 'model__num_leaves': 10, 'model__min_child_samples': 1, 'model__max_depth': 1, 'model__learning_rate': 0.05, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'gbdt'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__num_leaves': 2, 'model__num_iterations': 400, 'model__min_data_in_leaf': 30, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.1, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7762729792191194</v>
+        <v>0.5755003135693212</v>
       </c>
       <c r="E6" t="n">
-        <v>0.587638306138306</v>
+        <v>0.4242962870462871</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5384615384615385</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8581702307670799</v>
+        <v>0.6152852509838207</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6363194444444444</v>
+        <v>0.4407321428571429</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7123076923076923</v>
+        <v>0.5416346153846153</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5600000000000002</v>
+        <v>0.4191666666666666</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -813,7 +803,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1]</t>
+          <t>[1 1 1 0 1 1 0 0 1 1 1 0 0 1 1 0 0 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
